--- a/xlsx/群岛_intext.xlsx
+++ b/xlsx/群岛_intext.xlsx
@@ -15,33 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>群岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B2%9B</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E8%8F%AF%E6%B5%81</t>
   </si>
   <si>
-    <t>畢華流</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_群岛</t>
+    <t>毕华流</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E6%A2%93%E8%8D%92%E5%8E%9F%E8%A8%98</t>
   </si>
   <si>
-    <t>桑梓荒原記</t>
+    <t>桑梓荒原记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>島弧</t>
+    <t>岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
+    <t>苏格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E8%B5%AB%E5%B8%83%E9%87%8C%E5%BA%95%E7%BE%A4%E5%B2%9B</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%90%B4%E6%B5%B7</t>
   </si>
   <si>
-    <t>愛琴海</t>
+    <t>爱琴海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E9%BB%9E_(%E5%9C%B0%E8%B3%AA%E5%AD%B8)</t>
   </si>
   <si>
-    <t>熱點 (地質學)</t>
+    <t>热点 (地质学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%B5%E8%9A%80</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E6%BE%B1</t>
   </si>
   <si>
-    <t>沈澱</t>
+    <t>沈淀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -143,37 +143,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6%E6%B5%B7</t>
   </si>
   <si>
-    <t>群島海</t>
+    <t>群岛海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>群島列表</t>
+    <t>群岛列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%B1%BF%E5%88%97%E8%A1%A8</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>島嶼國家</t>
+    <t>岛屿国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E5%9D%97%E6%9E%84%E9%80%A0%E8%AE%BA</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>環礁</t>
+    <t>环礁</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Avulsion_(river)</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3</t>
   </si>
   <si>
-    <t>海灣</t>
+    <t>海湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Baymouth_bar</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>溺灣</t>
+    <t>溺湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E9%B9%BC%E7%81%98</t>
   </si>
   <si>
-    <t>鹽鹼灘</t>
+    <t>盐碱滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%B4%B2</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E9%80%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>陸連島</t>
+    <t>陆连岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E5%B3%B6%E6%B2%99%E6%B4%B2</t>
   </si>
   <si>
-    <t>連島沙洲</t>
+    <t>连岛沙洲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Windwatt</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%98</t>
   </si>
   <si>
-    <t>灘</t>
+    <t>滩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Beach_cusps</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%98%E5%9C%B0%E5%BD%A2%E5%8B%95%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>海灘地形動力學</t>
+    <t>海滩地形动力学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Beach_ridge</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%81%98</t>
   </si>
   <si>
-    <t>石灘</t>
+    <t>石滩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Storm_beach</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B9%E8%9D%95%E7%A9%B4</t>
   </si>
   <si>
-    <t>吹蝕穴</t>
+    <t>吹蚀穴</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cliffed_coast</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E4%BE%B5%E8%9D%95</t>
   </si>
   <si>
-    <t>海岸侵蝕</t>
+    <t>海岸侵蚀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Concordant_coastline</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E6%B0%B4%E6%B5%B7%E5%B2%B8</t>
   </si>
   <si>
-    <t>離水海岸</t>
+    <t>离水海岸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feeder_bluff</t>
@@ -845,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A2%E5%B2%B8%E6%B5%81</t>
   </si>
   <si>
-    <t>離岸流</t>
+    <t>离岸流</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rocky_shore</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%9D%95%E6%B4%9E</t>
   </si>
   <si>
-    <t>海蝕洞</t>
+    <t>海蚀洞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sea_foam</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%9D%95%E5%B9%B3%E8%87%BA</t>
   </si>
   <si>
-    <t>海蝕平臺</t>
+    <t>海蚀平台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wave_shoaling</t>
@@ -971,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%BE%91</t>
   </si>
   <si>
-    <t>粒徑</t>
+    <t>粒径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%9F%B3</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B5%9D%E5%8D%B5%E7%9F%B3</t>
   </si>
   <si>
-    <t>鵝卵石</t>
+    <t>鹅卵石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E9%96%93%E5%B8%B6</t>
   </si>
   <si>
-    <t>潮間帶</t>
+    <t>潮间带</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Littoral_zone</t>
@@ -1044,15 +1044,6 @@
   </si>
   <si>
     <t>en-Region of freshwater influence</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6394,64 +6385,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" t="s">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>172</v>
-      </c>
-      <c r="E173" t="s">
-        <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
-      </c>
-      <c r="G173" t="n">
-        <v>5</v>
-      </c>
-      <c r="H173" t="s">
-        <v>4</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>173</v>
-      </c>
-      <c r="E174" t="s">
-        <v>343</v>
-      </c>
-      <c r="F174" t="s">
-        <v>345</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" t="s">
-        <v>4</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
